--- a/Income/ALNY_inc.xlsx
+++ b/Income/ALNY_inc.xlsx
@@ -2405,7 +2405,7 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>0.0</v>
+        <v>-1.4091</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>-1.6809</v>
@@ -2786,22 +2786,22 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>0.0</v>
+        <v>-1.1207</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>-1.3061</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>-1.7715</v>
+        <v>-1.8555</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>-2.3736</v>
+        <v>-2.4712</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>-1.4306</v>
+        <v>-1.5485</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>-1.7514</v>
+        <v>-1.9048</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>-2.1985</v>
@@ -3802,22 +3802,22 @@
         </is>
       </c>
       <c r="B28" s="0" t="n">
-        <v>0.0</v>
+        <v>-1.3215</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>-1.6104</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>-2.2507</v>
+        <v>-2.2274</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>-2.5749</v>
+        <v>-2.5479</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>-3.2254</v>
+        <v>-3.1928</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>-4.07</v>
+        <v>-4.0276</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>-4.8059</v>
@@ -3929,22 +3929,22 @@
         </is>
       </c>
       <c r="B29" s="0" t="n">
-        <v>0.0</v>
+        <v>-1.0017</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>-1.1634</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>-1.5533</v>
+        <v>-1.6373</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>-2.0516</v>
+        <v>-2.1492</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>-1.0259</v>
+        <v>-1.1438</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>-1.1136</v>
+        <v>-1.267</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>-1.3773</v>
